--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H2">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I2">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J2">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>150.559354898398</v>
+        <v>84.44336466475001</v>
       </c>
       <c r="R2">
-        <v>1355.034194085582</v>
+        <v>759.99028198275</v>
       </c>
       <c r="S2">
-        <v>0.01064722547363908</v>
+        <v>0.006656942446394396</v>
       </c>
       <c r="T2">
-        <v>0.01064722547363908</v>
+        <v>0.006656942446394396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H3">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I3">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J3">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>612.8389674443033</v>
+        <v>523.774041380625</v>
       </c>
       <c r="R3">
-        <v>5515.55070699873</v>
+        <v>4713.966372425624</v>
       </c>
       <c r="S3">
-        <v>0.04333861997359745</v>
+        <v>0.04129079486859573</v>
       </c>
       <c r="T3">
-        <v>0.04333861997359745</v>
+        <v>0.04129079486859574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H4">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I4">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J4">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>201.2369451169795</v>
+        <v>209.73506315125</v>
       </c>
       <c r="R4">
-        <v>1811.132506052816</v>
+        <v>1887.61556836125</v>
       </c>
       <c r="S4">
-        <v>0.0142310328689487</v>
+        <v>0.01653409062904847</v>
       </c>
       <c r="T4">
-        <v>0.0142310328689487</v>
+        <v>0.01653409062904847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H5">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I5">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J5">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>713.2648415409534</v>
+        <v>498.359832529125</v>
       </c>
       <c r="R5">
-        <v>6419.38357386858</v>
+        <v>4485.238492762124</v>
       </c>
       <c r="S5">
-        <v>0.0504405162696854</v>
+        <v>0.03928731092030979</v>
       </c>
       <c r="T5">
-        <v>0.0504405162696854</v>
+        <v>0.03928731092030979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
         <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J6">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>644.436987045503</v>
+        <v>422.9028815124736</v>
       </c>
       <c r="R6">
-        <v>5799.932883409527</v>
+        <v>3806.125933612263</v>
       </c>
       <c r="S6">
-        <v>0.04557316222068315</v>
+        <v>0.03333879640892706</v>
       </c>
       <c r="T6">
-        <v>0.04557316222068316</v>
+        <v>0.03333879640892706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
         <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J7">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
-        <v>2623.125597146711</v>
+        <v>2623.125597146712</v>
       </c>
       <c r="R7">
-        <v>23608.1303743204</v>
+        <v>23608.13037432041</v>
       </c>
       <c r="S7">
-        <v>0.1855016561232116</v>
+        <v>0.2067894404633893</v>
       </c>
       <c r="T7">
-        <v>0.1855016561232116</v>
+        <v>0.2067894404633893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
         <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J8">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>861.3515293084415</v>
+        <v>1050.379303489432</v>
       </c>
       <c r="R8">
-        <v>7752.163763775975</v>
+        <v>9453.413731404891</v>
       </c>
       <c r="S8">
-        <v>0.06091288017805131</v>
+        <v>0.08280478398715267</v>
       </c>
       <c r="T8">
-        <v>0.06091288017805133</v>
+        <v>0.08280478398715267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
         <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J9">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>3052.976985444237</v>
+        <v>2495.8480757295</v>
       </c>
       <c r="R9">
-        <v>27476.79286899813</v>
+        <v>22462.6326815655</v>
       </c>
       <c r="S9">
-        <v>0.2158997981347063</v>
+        <v>0.1967557434623531</v>
       </c>
       <c r="T9">
-        <v>0.2158997981347064</v>
+        <v>0.1967557434623531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H10">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>129.766970754261</v>
+        <v>99.85031291627313</v>
       </c>
       <c r="R10">
-        <v>1167.902736788349</v>
+        <v>898.6528162464581</v>
       </c>
       <c r="S10">
-        <v>0.009176833930937938</v>
+        <v>0.007871521806088955</v>
       </c>
       <c r="T10">
-        <v>0.009176833930937938</v>
+        <v>0.007871521806088955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H11">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>528.205347446415</v>
+        <v>619.3382053984884</v>
       </c>
       <c r="R11">
-        <v>4753.848127017735</v>
+        <v>5574.043848586395</v>
       </c>
       <c r="S11">
-        <v>0.03735351705272014</v>
+        <v>0.04882442575043423</v>
       </c>
       <c r="T11">
-        <v>0.03735351705272014</v>
+        <v>0.04882442575043424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H12">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>173.445939571768</v>
+        <v>248.0018621748345</v>
       </c>
       <c r="R12">
-        <v>1561.013456145912</v>
+        <v>2232.01675957351</v>
       </c>
       <c r="S12">
-        <v>0.01226571425836684</v>
+        <v>0.01955078566150117</v>
       </c>
       <c r="T12">
-        <v>0.01226571425836684</v>
+        <v>0.01955078566150117</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H13">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>614.7623167935901</v>
+        <v>589.2870969849804</v>
       </c>
       <c r="R13">
-        <v>5532.860851142311</v>
+        <v>5303.583872864823</v>
       </c>
       <c r="S13">
-        <v>0.04347463499704288</v>
+        <v>0.04645540007324459</v>
       </c>
       <c r="T13">
-        <v>0.04347463499704288</v>
+        <v>0.0464554000732446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H14">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>344.094438846689</v>
+        <v>206.5652740382024</v>
       </c>
       <c r="R14">
-        <v>3096.849949620201</v>
+        <v>1859.087466343822</v>
       </c>
       <c r="S14">
-        <v>0.02433359970955213</v>
+        <v>0.01628420594270823</v>
       </c>
       <c r="T14">
-        <v>0.02433359970955213</v>
+        <v>0.01628420594270823</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H15">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>1400.606961609501</v>
+        <v>1281.255535250478</v>
       </c>
       <c r="R15">
-        <v>12605.46265448551</v>
+        <v>11531.2998172543</v>
       </c>
       <c r="S15">
-        <v>0.099047834857345</v>
+        <v>0.1010055010378705</v>
       </c>
       <c r="T15">
-        <v>0.099047834857345</v>
+        <v>0.1010055010378705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H16">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>459.9150531162763</v>
+        <v>513.0537013447878</v>
       </c>
       <c r="R16">
-        <v>4139.235478046488</v>
+        <v>4617.48331210309</v>
       </c>
       <c r="S16">
-        <v>0.03252417807285513</v>
+        <v>0.04044567593109636</v>
       </c>
       <c r="T16">
-        <v>0.03252417807285513</v>
+        <v>0.04044567593109636</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H17">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>1630.124315853577</v>
+        <v>1219.087323020706</v>
       </c>
       <c r="R17">
-        <v>14671.11884268219</v>
+        <v>10971.78590718635</v>
       </c>
       <c r="S17">
-        <v>0.1152787958786569</v>
+        <v>0.09610458061088537</v>
       </c>
       <c r="T17">
-        <v>0.1152787958786569</v>
+        <v>0.09610458061088538</v>
       </c>
     </row>
   </sheetData>
